--- a/DB/Book1.xlsx
+++ b/DB/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -72,16 +72,60 @@
   </si>
   <si>
     <t>Rohit Gupta</t>
+  </si>
+  <si>
+    <t>debmainak37@gmail.com</t>
+  </si>
+  <si>
+    <t>buddha@example.com</t>
+  </si>
+  <si>
+    <t>sagnik@example.com</t>
+  </si>
+  <si>
+    <t>ishika@example.com</t>
+  </si>
+  <si>
+    <t>priyanka@example.com</t>
+  </si>
+  <si>
+    <t>ayanj@example.com</t>
+  </si>
+  <si>
+    <t>avir@example.com</t>
+  </si>
+  <si>
+    <t>ayush@example.com</t>
+  </si>
+  <si>
+    <t>chandan@example.com</t>
+  </si>
+  <si>
+    <t>sneha@example.com</t>
+  </si>
+  <si>
+    <t>sombee@example.com</t>
+  </si>
+  <si>
+    <t>rohit@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,13 +148,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,13 +439,14 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -425,6 +473,9 @@
       <c r="C2">
         <v>28052001</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -436,6 +487,9 @@
       <c r="C3">
         <v>13042000</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -445,7 +499,10 @@
         <v>11000119032</v>
       </c>
       <c r="C4">
-        <v>1212000</v>
+        <v>12122000</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -458,6 +515,9 @@
       <c r="C5">
         <v>8072001</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -467,7 +527,10 @@
         <v>11000119034</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>12102000</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,6 +540,12 @@
       <c r="B7">
         <v>11000119035</v>
       </c>
+      <c r="C7">
+        <v>8092001</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -485,6 +554,12 @@
       <c r="B8">
         <v>11000119036</v>
       </c>
+      <c r="C8">
+        <v>1112001</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -493,6 +568,12 @@
       <c r="B9">
         <v>11000119037</v>
       </c>
+      <c r="C9">
+        <v>21122000</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -501,6 +582,12 @@
       <c r="B10">
         <v>11000119038</v>
       </c>
+      <c r="C10">
+        <v>14042001</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -509,6 +596,12 @@
       <c r="B11">
         <v>11000119039</v>
       </c>
+      <c r="C11">
+        <v>15022000</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -517,6 +610,12 @@
       <c r="B12">
         <v>11000119040</v>
       </c>
+      <c r="C12">
+        <v>17062001</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -525,8 +624,28 @@
       <c r="B13">
         <v>11000119041</v>
       </c>
+      <c r="C13">
+        <v>27052001</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>